--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T00:46:54+00:00</t>
+    <t>2022-05-15T02:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T02:13:14+00:00</t>
+    <t>2022-05-15T03:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T03:44:39+00:00</t>
+    <t>2022-05-15T04:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:01:28+00:00</t>
+    <t>2022-05-15T04:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:22:03+00:00</t>
+    <t>2022-05-15T04:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:40:19+00:00</t>
+    <t>2022-05-15T04:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:50:30+00:00</t>
+    <t>2022-05-15T05:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:04:41+00:00</t>
+    <t>2022-05-15T05:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:59:51+00:00</t>
+    <t>2022-05-15T06:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:10:42+00:00</t>
+    <t>2022-05-15T06:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:58:01+00:00</t>
+    <t>2022-05-15T08:00:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:00:52+00:00</t>
+    <t>2022-05-15T08:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:35:02+00:00</t>
+    <t>2022-05-15T20:34:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1209,7 +1209,7 @@
     <t>埋め込まれているBundleリソースを一意に識別するためのUUID。</t>
   </si>
   <si>
-    <t xml:space="preserve">Bundle {http://jpfhir.jp/fhir/CCLIX/StructureDefinition/JP_Bundle_ePrescriptionData}
+    <t xml:space="preserve">Bundle {http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_Bundle_ePrescriptionData}
 </t>
   </si>
   <si>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T20:34:26+00:00</t>
+    <t>2022-05-15T21:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:11:53+00:00</t>
+    <t>2022-05-15T21:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:22:54+00:00</t>
+    <t>2022-05-15T23:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:20:03+00:00</t>
+    <t>2022-05-16T02:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T06:42:02+00:00</t>
+    <t>2022-05-16T08:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
+++ b/StructureDefinition-JP-Bundle-ePrescriptionDataDerived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
